--- a/BackTest/2020-01-15 BackTest DAC.xlsx
+++ b/BackTest/2020-01-15 BackTest DAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -5434,7 +5434,7 @@
         <v>-1862748.1865</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-1898778.346</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-1791114.5035</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-1825392.1626</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-1821546.3562</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-1795677.8138</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-1695509.6585</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-1767451.6307</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-1806857.5169</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-1758016.8006</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-1777959.083</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-1777959.083</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-1742825.2776</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-1685218.5515</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-1685218.5515</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-1705799.2039</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-1653036.8421</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-1718206.7663</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-1695070.7754</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-1719989.5328</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-1681149.655</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-1681149.655</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-1681149.655</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-1616569.3408</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-1639322.0159</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-1638132.4529</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-1638132.4529</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-1607129.3272</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-1664846.5865</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-1664846.5865</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-1664846.5865</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-1664846.5865</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-1615681.7554</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-1615681.7554</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-1615681.7554</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-1615681.7554</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-1615681.7554</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-1615681.7554</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-1655276.0957</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-1610533.2878</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-1650289.513</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-1650289.513</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-1650289.513</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-1650289.513</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-1650289.513</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-1650289.513</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-1650289.513</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-1595432.0742</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-1595432.0742</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-1595432.0742</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-1642328.5861</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-1642328.5861</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-1602502.1562</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-1602502.1562</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-1602502.1562</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-1602502.1562</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-1602502.1562</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-1602502.1562</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-1602502.1562</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-1602502.1562</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-1602502.1562</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-1596502.1562</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-1596502.1562</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-1596502.1562</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-1596502.1562</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-1646812.1995</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-1585926.7238</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-1585926.7238</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-1578637.7238</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-1578637.7238</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-1603029.2962</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-1564062.5546</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-1602152.7637</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-1582304.223</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-1582304.223</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-1622467.7492</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-1573608.2416</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-1573608.2416</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-1573608.2416</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-1573608.2416</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-1549153.2988</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-1549153.2988</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-1554741.5888</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-1548741.5888</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-1548741.5888</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-1548741.5888</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-1548741.5888</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-1548741.5888</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-1786161.031</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-1786161.031</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-1825409.5105</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-1783081.5434</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-1750187.7732</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-1769662.1988</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-1826659.8386</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -18337,14 +18337,10 @@
         <v>-1792673.4961</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
-      </c>
-      <c r="I544" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="J544" t="n">
-        <v>2.099</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
@@ -18377,14 +18373,8 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18416,14 +18406,8 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18455,14 +18439,8 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18491,19 +18469,11 @@
         <v>-1877324.2297</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
-      </c>
-      <c r="I548" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="J548" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18532,19 +18502,11 @@
         <v>-1821604.782</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
-      </c>
-      <c r="I549" t="n">
-        <v>2.098</v>
-      </c>
-      <c r="J549" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18573,19 +18535,11 @@
         <v>-1821604.782</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
-      </c>
-      <c r="I550" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J550" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18617,14 +18571,8 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18656,14 +18604,8 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18695,14 +18637,8 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18734,14 +18670,8 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18773,14 +18703,8 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18812,14 +18736,8 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18851,14 +18769,8 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18890,14 +18802,8 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18929,14 +18835,8 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18968,14 +18868,8 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19007,14 +18901,8 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19046,14 +18934,8 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19085,14 +18967,8 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19124,14 +19000,8 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19163,14 +19033,8 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19202,14 +19066,8 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19241,14 +19099,8 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19280,14 +19132,8 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19319,14 +19165,8 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19358,14 +19198,8 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19397,14 +19231,8 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19436,14 +19264,8 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19475,14 +19297,8 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19514,14 +19330,8 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19553,14 +19363,8 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19592,14 +19396,8 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19631,14 +19429,8 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19670,14 +19462,8 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19709,14 +19495,8 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19748,14 +19528,8 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19787,14 +19561,8 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19826,14 +19594,8 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19865,14 +19627,8 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19904,14 +19660,8 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19943,14 +19693,8 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19982,14 +19726,8 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20021,14 +19759,8 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20060,14 +19792,8 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20099,14 +19825,8 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20138,14 +19858,8 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20177,14 +19891,8 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20216,14 +19924,8 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20255,14 +19957,8 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20294,14 +19990,8 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20333,14 +20023,8 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20372,14 +20056,8 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20411,14 +20089,8 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20450,14 +20122,8 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20489,14 +20155,8 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20528,14 +20188,8 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20567,14 +20221,8 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20606,14 +20254,8 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20645,14 +20287,8 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20684,14 +20320,8 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20723,14 +20353,8 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20762,14 +20386,8 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20801,14 +20419,8 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20840,14 +20452,8 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20879,14 +20485,8 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20918,14 +20518,8 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20957,14 +20551,8 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20996,14 +20584,8 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21035,14 +20617,8 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21074,14 +20650,8 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21113,14 +20683,8 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21152,14 +20716,8 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21191,14 +20749,8 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21230,14 +20782,8 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21269,14 +20815,8 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21308,14 +20848,8 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21347,14 +20881,8 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21386,14 +20914,8 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21425,14 +20947,8 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21464,14 +20980,8 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21503,14 +21013,8 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21542,14 +21046,8 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21581,14 +21079,8 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21620,14 +21112,8 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21659,14 +21145,8 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21698,14 +21178,8 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21737,14 +21211,8 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21776,14 +21244,8 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21815,14 +21277,8 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21854,14 +21310,8 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21893,14 +21343,8 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21932,14 +21376,8 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21971,14 +21409,8 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22010,14 +21442,8 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22049,14 +21475,8 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22088,14 +21508,8 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22127,14 +21541,8 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22166,14 +21574,8 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22205,14 +21607,8 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22244,14 +21640,8 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22283,14 +21673,8 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22322,14 +21706,8 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22361,14 +21739,8 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22400,14 +21772,8 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22439,14 +21805,8 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22478,14 +21838,8 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22517,14 +21871,8 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22556,14 +21904,8 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22595,14 +21937,8 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22634,14 +21970,8 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22673,14 +22003,8 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22712,14 +22036,8 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22751,14 +22069,8 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22790,14 +22102,8 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22829,14 +22135,8 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22868,14 +22168,8 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22907,14 +22201,8 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22946,14 +22234,8 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22985,14 +22267,8 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23024,14 +22300,8 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23063,14 +22333,8 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23102,14 +22366,8 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23141,14 +22399,8 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23180,14 +22432,8 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23219,14 +22465,8 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23258,14 +22498,8 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23297,14 +22531,8 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23336,14 +22564,8 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23375,14 +22597,8 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23414,14 +22630,8 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23453,14 +22663,8 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23489,17 +22693,11 @@
         <v>-1024671.5971</v>
       </c>
       <c r="H676" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23531,14 +22729,8 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23570,14 +22762,8 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23609,14 +22795,8 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23645,17 +22825,11 @@
         <v>-1116009.8421</v>
       </c>
       <c r="H680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23687,14 +22861,8 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23726,14 +22894,8 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23765,14 +22927,8 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23804,14 +22960,8 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23843,14 +22993,8 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23882,14 +23026,8 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23921,14 +23059,8 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23960,14 +23092,8 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23999,14 +23125,8 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24038,14 +23158,8 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24077,14 +23191,8 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24116,14 +23224,8 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24155,14 +23257,8 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24194,14 +23290,8 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24233,14 +23323,8 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24272,14 +23356,8 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24311,14 +23389,8 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24350,14 +23422,8 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24389,14 +23455,8 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24428,14 +23488,8 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24467,14 +23521,8 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24506,14 +23554,8 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24545,14 +23587,8 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24581,17 +23617,11 @@
         <v>-1359650.2928</v>
       </c>
       <c r="H704" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24623,14 +23653,8 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24662,14 +23686,8 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24701,14 +23719,8 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24737,17 +23749,11 @@
         <v>-1283965.6158</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24779,14 +23785,8 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24818,14 +23818,8 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24857,14 +23851,8 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24893,17 +23881,11 @@
         <v>-1355296.694600001</v>
       </c>
       <c r="H712" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24932,17 +23914,11 @@
         <v>-1397473.0692</v>
       </c>
       <c r="H713" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24971,17 +23947,11 @@
         <v>-1397473.0692</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25010,17 +23980,11 @@
         <v>-1336622.8605</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J715" t="inlineStr"/>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -25049,17 +24013,11 @@
         <v>-1292740.2663</v>
       </c>
       <c r="H716" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J716" t="inlineStr"/>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25088,17 +24046,11 @@
         <v>-1312425.610300001</v>
       </c>
       <c r="H717" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J717" t="inlineStr"/>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25127,17 +24079,11 @@
         <v>-1263232.676500001</v>
       </c>
       <c r="H718" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25166,17 +24112,11 @@
         <v>-1283524.652200001</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J719" t="inlineStr"/>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25205,17 +24145,11 @@
         <v>-1330502.286900001</v>
       </c>
       <c r="H720" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J720" t="inlineStr"/>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25244,17 +24178,11 @@
         <v>-1292351.558700001</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25283,17 +24211,11 @@
         <v>-1429202.240500001</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J722" t="inlineStr"/>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25322,17 +24244,11 @@
         <v>-1429202.240500001</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J723" t="inlineStr"/>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25361,17 +24277,11 @@
         <v>-1395296.7762</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J724" t="inlineStr"/>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25400,17 +24310,11 @@
         <v>-1443639.566300001</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25439,17 +24343,11 @@
         <v>-1503660.8229</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25478,17 +24376,11 @@
         <v>-1544269.7525</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25517,17 +24409,11 @@
         <v>-1503821.1922</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25556,17 +24442,11 @@
         <v>-1463986.3701</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25595,17 +24475,11 @@
         <v>-1463986.3701</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25634,17 +24508,11 @@
         <v>-1511174.7888</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25673,17 +24541,11 @@
         <v>-1457536.8561</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25712,17 +24574,11 @@
         <v>-1499429.7337</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25751,17 +24607,11 @@
         <v>-1533831.9297</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25790,17 +24640,11 @@
         <v>-1487751.733500001</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25829,17 +24673,11 @@
         <v>-1514002.8717</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25868,17 +24706,11 @@
         <v>-1579250.855100001</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25907,17 +24739,11 @@
         <v>-1536754.0329</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25946,17 +24772,11 @@
         <v>-1583126.9248</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25988,14 +24808,8 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -26024,17 +24838,11 @@
         <v>-1586632.0179</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -26066,14 +24874,8 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -26105,14 +24907,8 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -26144,14 +24940,8 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -26183,14 +24973,8 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -26222,14 +25006,8 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -26261,14 +25039,8 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -26300,14 +25072,8 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26339,14 +25105,8 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26378,14 +25138,8 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26417,14 +25171,8 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26456,14 +25204,8 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J752" t="inlineStr"/>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26495,14 +25237,8 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J753" t="inlineStr"/>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26534,14 +25270,8 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J754" t="inlineStr"/>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26573,14 +25303,8 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J755" t="inlineStr"/>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26612,14 +25336,8 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J756" t="inlineStr"/>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26651,14 +25369,8 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26690,14 +25402,8 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J758" t="inlineStr"/>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26729,14 +25435,8 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J759" t="inlineStr"/>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26768,14 +25468,8 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J760" t="inlineStr"/>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26807,14 +25501,8 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J761" t="inlineStr"/>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26846,14 +25534,8 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J762" t="inlineStr"/>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26885,14 +25567,8 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J763" t="inlineStr"/>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26924,14 +25600,8 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J764" t="inlineStr"/>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26963,14 +25633,8 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J765" t="inlineStr"/>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -27002,14 +25666,8 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J766" t="inlineStr"/>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -27041,14 +25699,8 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J767" t="inlineStr"/>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -27080,14 +25732,8 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J768" t="inlineStr"/>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -27116,19 +25762,13 @@
         <v>-1330710.3867</v>
       </c>
       <c r="H769" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J769" t="inlineStr"/>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
-        <v>1.010245354930919</v>
+        <v>1</v>
       </c>
       <c r="M769" t="inlineStr"/>
     </row>
@@ -28046,7 +26686,7 @@
         <v>-1873874.845900001</v>
       </c>
       <c r="H797" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -28079,7 +26719,7 @@
         <v>-1908716.9911</v>
       </c>
       <c r="H798" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -28112,7 +26752,7 @@
         <v>-1945344.7355</v>
       </c>
       <c r="H799" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -28178,7 +26818,7 @@
         <v>-1877855.1845</v>
       </c>
       <c r="H801" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -28211,7 +26851,7 @@
         <v>-1914089.2648</v>
       </c>
       <c r="H802" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -28739,7 +27379,7 @@
         <v>-1900481.741400001</v>
       </c>
       <c r="H818" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -38441,10 +37081,14 @@
         <v>-4265373.7501</v>
       </c>
       <c r="H1112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1112" t="inlineStr"/>
-      <c r="J1112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1112" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="J1112" t="n">
+        <v>2.091</v>
+      </c>
       <c r="K1112" t="inlineStr"/>
       <c r="L1112" t="n">
         <v>1</v>
@@ -38474,11 +37118,19 @@
         <v>-4265373.7501</v>
       </c>
       <c r="H1113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1113" t="inlineStr"/>
-      <c r="J1113" t="inlineStr"/>
-      <c r="K1113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1113" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="J1113" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="K1113" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1113" t="n">
         <v>1</v>
       </c>
@@ -38507,11 +37159,19 @@
         <v>-4265373.7501</v>
       </c>
       <c r="H1114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1114" t="inlineStr"/>
-      <c r="J1114" t="inlineStr"/>
-      <c r="K1114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1114" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="J1114" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="K1114" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1114" t="n">
         <v>1</v>
       </c>
@@ -38540,7 +37200,7 @@
         <v>-4265373.7501</v>
       </c>
       <c r="H1115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1115" t="n">
         <v>2.091</v>
@@ -38548,7 +37208,11 @@
       <c r="J1115" t="n">
         <v>2.091</v>
       </c>
-      <c r="K1115" t="inlineStr"/>
+      <c r="K1115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1115" t="n">
         <v>1</v>
       </c>
@@ -38577,7 +37241,7 @@
         <v>-4238315.851</v>
       </c>
       <c r="H1116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1116" t="n">
         <v>2.091</v>
@@ -38587,7 +37251,7 @@
       </c>
       <c r="K1116" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1116" t="n">
@@ -38618,9 +37282,11 @@
         <v>-4284860.526699999</v>
       </c>
       <c r="H1117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1117" t="n">
+        <v>2.102</v>
+      </c>
       <c r="J1117" t="n">
         <v>2.091</v>
       </c>
@@ -40039,6 +38705,6 @@
       <c r="M1153" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest DAC.xlsx
+++ b/BackTest/2020-01-15 BackTest DAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -22594,7 +22594,7 @@
         <v>-985794.0377000002</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
         <v>-1026266.811</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22825,7 +22825,7 @@
         <v>-1116009.8421</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>-1228117.2938</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>-1250971.251</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         <v>-1352612.1254</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>-1375932.5164</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23518,7 +23518,7 @@
         <v>-1326189.2286</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>-1355205.7192</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>-1308501.0133</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>-1359650.2928</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>-1321927.8161</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
         <v>-1355296.694600001</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
         <v>-1397473.0692</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>-1397473.0692</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -23980,7 +23980,7 @@
         <v>-1336622.8605</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24013,7 +24013,7 @@
         <v>-1292740.2663</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24046,7 +24046,7 @@
         <v>-1312425.610300001</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24079,7 +24079,7 @@
         <v>-1263232.676500001</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
         <v>-1283524.652200001</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>-1330502.286900001</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24178,7 +24178,7 @@
         <v>-1292351.558700001</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24211,7 +24211,7 @@
         <v>-1429202.240500001</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>-1429202.240500001</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>-1395296.7762</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
         <v>-1443639.566300001</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24343,7 +24343,7 @@
         <v>-1503660.8229</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24376,7 +24376,7 @@
         <v>-1544269.7525</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24409,7 +24409,7 @@
         <v>-1503821.1922</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24442,7 +24442,7 @@
         <v>-1463986.3701</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24475,7 +24475,7 @@
         <v>-1463986.3701</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -24508,7 +24508,7 @@
         <v>-1511174.7888</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24541,7 +24541,7 @@
         <v>-1457536.8561</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24574,7 +24574,7 @@
         <v>-1499429.7337</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24607,7 +24607,7 @@
         <v>-1533831.9297</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24640,7 +24640,7 @@
         <v>-1487751.733500001</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -24673,7 +24673,7 @@
         <v>-1514002.8717</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24706,7 +24706,7 @@
         <v>-1579250.855100001</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -24739,7 +24739,7 @@
         <v>-1536754.0329</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -24772,7 +24772,7 @@
         <v>-1583126.9248</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -24838,7 +24838,7 @@
         <v>-1586632.0179</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -37081,14 +37081,10 @@
         <v>-4265373.7501</v>
       </c>
       <c r="H1112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1112" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="J1112" t="n">
-        <v>2.091</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1112" t="inlineStr"/>
+      <c r="J1112" t="inlineStr"/>
       <c r="K1112" t="inlineStr"/>
       <c r="L1112" t="n">
         <v>1</v>
@@ -37118,1080 +37114,918 @@
         <v>-4265373.7501</v>
       </c>
       <c r="H1113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1113" t="inlineStr"/>
+      <c r="J1113" t="inlineStr"/>
+      <c r="K1113" t="inlineStr"/>
+      <c r="L1113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1113" t="inlineStr"/>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="1" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B1114" t="n">
         <v>2.091</v>
       </c>
-      <c r="J1113" t="n">
+      <c r="C1114" t="n">
         <v>2.091</v>
       </c>
-      <c r="K1113" t="inlineStr">
+      <c r="D1114" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="F1114" t="n">
+        <v>361908.4717</v>
+      </c>
+      <c r="G1114" t="n">
+        <v>-4265373.7501</v>
+      </c>
+      <c r="H1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1114" t="inlineStr"/>
+      <c r="J1114" t="inlineStr"/>
+      <c r="K1114" t="inlineStr"/>
+      <c r="L1114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1114" t="inlineStr"/>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="1" t="n">
+        <v>1113</v>
+      </c>
+      <c r="B1115" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="C1115" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="D1115" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>26925.1193</v>
+      </c>
+      <c r="G1115" t="n">
+        <v>-4265373.7501</v>
+      </c>
+      <c r="H1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1115" t="inlineStr"/>
+      <c r="J1115" t="inlineStr"/>
+      <c r="K1115" t="inlineStr"/>
+      <c r="L1115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1115" t="inlineStr"/>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="1" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B1116" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="C1116" t="n">
+        <v>2.102</v>
+      </c>
+      <c r="D1116" t="n">
+        <v>2.102</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="F1116" t="n">
+        <v>27057.8991</v>
+      </c>
+      <c r="G1116" t="n">
+        <v>-4238315.851</v>
+      </c>
+      <c r="H1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1116" t="inlineStr"/>
+      <c r="J1116" t="inlineStr"/>
+      <c r="K1116" t="inlineStr"/>
+      <c r="L1116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1116" t="inlineStr"/>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="1" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B1117" t="n">
+        <v>2.097</v>
+      </c>
+      <c r="C1117" t="n">
+        <v>2.094</v>
+      </c>
+      <c r="D1117" t="n">
+        <v>2.097</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>2.094</v>
+      </c>
+      <c r="F1117" t="n">
+        <v>46544.6757</v>
+      </c>
+      <c r="G1117" t="n">
+        <v>-4284860.526699999</v>
+      </c>
+      <c r="H1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1117" t="inlineStr"/>
+      <c r="J1117" t="inlineStr"/>
+      <c r="K1117" t="inlineStr"/>
+      <c r="L1117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1117" t="inlineStr"/>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="1" t="n">
+        <v>1116</v>
+      </c>
+      <c r="B1118" t="n">
+        <v>2.094</v>
+      </c>
+      <c r="C1118" t="n">
+        <v>2.097</v>
+      </c>
+      <c r="D1118" t="n">
+        <v>2.097</v>
+      </c>
+      <c r="E1118" t="n">
+        <v>2.093</v>
+      </c>
+      <c r="F1118" t="n">
+        <v>66669.6773</v>
+      </c>
+      <c r="G1118" t="n">
+        <v>-4218190.8494</v>
+      </c>
+      <c r="H1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1118" t="inlineStr"/>
+      <c r="J1118" t="inlineStr"/>
+      <c r="K1118" t="inlineStr"/>
+      <c r="L1118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1118" t="inlineStr"/>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="1" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B1119" t="n">
+        <v>2.101</v>
+      </c>
+      <c r="C1119" t="n">
+        <v>2.101</v>
+      </c>
+      <c r="D1119" t="n">
+        <v>2.101</v>
+      </c>
+      <c r="E1119" t="n">
+        <v>2.101</v>
+      </c>
+      <c r="F1119" t="n">
+        <v>21625.4209</v>
+      </c>
+      <c r="G1119" t="n">
+        <v>-4196565.428499999</v>
+      </c>
+      <c r="H1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1119" t="inlineStr"/>
+      <c r="J1119" t="inlineStr"/>
+      <c r="K1119" t="inlineStr"/>
+      <c r="L1119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1119" t="inlineStr"/>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="1" t="n">
+        <v>1118</v>
+      </c>
+      <c r="B1120" t="n">
+        <v>2.097</v>
+      </c>
+      <c r="C1120" t="n">
+        <v>2.099</v>
+      </c>
+      <c r="D1120" t="n">
+        <v>2.099</v>
+      </c>
+      <c r="E1120" t="n">
+        <v>2.097</v>
+      </c>
+      <c r="F1120" t="n">
+        <v>40013.4088</v>
+      </c>
+      <c r="G1120" t="n">
+        <v>-4236578.8373</v>
+      </c>
+      <c r="H1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1120" t="inlineStr"/>
+      <c r="J1120" t="inlineStr"/>
+      <c r="K1120" t="inlineStr"/>
+      <c r="L1120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1120" t="inlineStr"/>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="1" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B1121" t="n">
+        <v>2.099</v>
+      </c>
+      <c r="C1121" t="n">
+        <v>2.098</v>
+      </c>
+      <c r="D1121" t="n">
+        <v>2.099</v>
+      </c>
+      <c r="E1121" t="n">
+        <v>2.098</v>
+      </c>
+      <c r="F1121" t="n">
+        <v>31519.026</v>
+      </c>
+      <c r="G1121" t="n">
+        <v>-4268097.863299999</v>
+      </c>
+      <c r="H1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1121" t="inlineStr"/>
+      <c r="J1121" t="inlineStr"/>
+      <c r="K1121" t="inlineStr"/>
+      <c r="L1121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1121" t="inlineStr"/>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="1" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B1122" t="n">
+        <v>2.096</v>
+      </c>
+      <c r="C1122" t="n">
+        <v>2.093</v>
+      </c>
+      <c r="D1122" t="n">
+        <v>2.096</v>
+      </c>
+      <c r="E1122" t="n">
+        <v>2.093</v>
+      </c>
+      <c r="F1122" t="n">
+        <v>41605.4905</v>
+      </c>
+      <c r="G1122" t="n">
+        <v>-4309703.3538</v>
+      </c>
+      <c r="H1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1122" t="inlineStr"/>
+      <c r="J1122" t="inlineStr"/>
+      <c r="K1122" t="inlineStr"/>
+      <c r="L1122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1122" t="inlineStr"/>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="1" t="n">
+        <v>1121</v>
+      </c>
+      <c r="B1123" t="n">
+        <v>2.097</v>
+      </c>
+      <c r="C1123" t="n">
+        <v>2.092</v>
+      </c>
+      <c r="D1123" t="n">
+        <v>2.097</v>
+      </c>
+      <c r="E1123" t="n">
+        <v>2.092</v>
+      </c>
+      <c r="F1123" t="n">
+        <v>35216.0369</v>
+      </c>
+      <c r="G1123" t="n">
+        <v>-4344919.390699999</v>
+      </c>
+      <c r="H1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1123" t="inlineStr"/>
+      <c r="J1123" t="inlineStr"/>
+      <c r="K1123" t="inlineStr"/>
+      <c r="L1123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1123" t="inlineStr"/>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="1" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B1124" t="n">
+        <v>2.092</v>
+      </c>
+      <c r="C1124" t="n">
+        <v>2.094</v>
+      </c>
+      <c r="D1124" t="n">
+        <v>2.094</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>2.092</v>
+      </c>
+      <c r="F1124" t="n">
+        <v>43678.5014</v>
+      </c>
+      <c r="G1124" t="n">
+        <v>-4301240.889299999</v>
+      </c>
+      <c r="H1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1124" t="inlineStr"/>
+      <c r="J1124" t="inlineStr"/>
+      <c r="K1124" t="inlineStr"/>
+      <c r="L1124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1124" t="inlineStr"/>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="1" t="n">
+        <v>1123</v>
+      </c>
+      <c r="B1125" t="n">
+        <v>2.096</v>
+      </c>
+      <c r="C1125" t="n">
+        <v>2.092</v>
+      </c>
+      <c r="D1125" t="n">
+        <v>2.096</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>2.092</v>
+      </c>
+      <c r="F1125" t="n">
+        <v>37945.0973</v>
+      </c>
+      <c r="G1125" t="n">
+        <v>-4339185.986599999</v>
+      </c>
+      <c r="H1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1125" t="inlineStr"/>
+      <c r="J1125" t="inlineStr"/>
+      <c r="K1125" t="inlineStr"/>
+      <c r="L1125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1125" t="inlineStr"/>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="1" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B1126" t="n">
+        <v>2.098</v>
+      </c>
+      <c r="C1126" t="n">
+        <v>2.093</v>
+      </c>
+      <c r="D1126" t="n">
+        <v>2.098</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>2.093</v>
+      </c>
+      <c r="F1126" t="n">
+        <v>35089.0295</v>
+      </c>
+      <c r="G1126" t="n">
+        <v>-4304096.957099998</v>
+      </c>
+      <c r="H1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1126" t="inlineStr"/>
+      <c r="J1126" t="inlineStr"/>
+      <c r="K1126" t="inlineStr"/>
+      <c r="L1126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1126" t="inlineStr"/>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="1" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B1127" t="n">
+        <v>2.096</v>
+      </c>
+      <c r="C1127" t="n">
+        <v>2.102</v>
+      </c>
+      <c r="D1127" t="n">
+        <v>2.102</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="F1127" t="n">
+        <v>44120.9788</v>
+      </c>
+      <c r="G1127" t="n">
+        <v>-4259975.978299999</v>
+      </c>
+      <c r="H1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1127" t="inlineStr"/>
+      <c r="J1127" t="inlineStr"/>
+      <c r="K1127" t="inlineStr"/>
+      <c r="L1127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1127" t="inlineStr"/>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="1" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B1128" t="n">
+        <v>2.093</v>
+      </c>
+      <c r="C1128" t="n">
+        <v>2.099</v>
+      </c>
+      <c r="D1128" t="n">
+        <v>2.099</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>2.093</v>
+      </c>
+      <c r="F1128" t="n">
+        <v>44646.0638</v>
+      </c>
+      <c r="G1128" t="n">
+        <v>-4304622.042099998</v>
+      </c>
+      <c r="H1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1128" t="inlineStr"/>
+      <c r="J1128" t="inlineStr"/>
+      <c r="K1128" t="inlineStr"/>
+      <c r="L1128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1128" t="inlineStr"/>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="1" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B1129" t="n">
+        <v>2.099</v>
+      </c>
+      <c r="C1129" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="D1129" t="n">
+        <v>2.099</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="F1129" t="n">
+        <v>37302.9314</v>
+      </c>
+      <c r="G1129" t="n">
+        <v>-4341924.973499998</v>
+      </c>
+      <c r="H1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1129" t="inlineStr"/>
+      <c r="J1129" t="inlineStr"/>
+      <c r="K1129" t="inlineStr"/>
+      <c r="L1129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1129" t="inlineStr"/>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="1" t="n">
+        <v>1128</v>
+      </c>
+      <c r="B1130" t="n">
+        <v>2.093</v>
+      </c>
+      <c r="C1130" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D1130" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="F1130" t="n">
+        <v>52106.2547</v>
+      </c>
+      <c r="G1130" t="n">
+        <v>-4289818.718799998</v>
+      </c>
+      <c r="H1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1130" t="inlineStr"/>
+      <c r="J1130" t="inlineStr"/>
+      <c r="K1130" t="inlineStr"/>
+      <c r="L1130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1130" t="inlineStr"/>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="1" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B1131" t="n">
+        <v>2.093</v>
+      </c>
+      <c r="C1131" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="D1131" t="n">
+        <v>2.102</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="F1131" t="n">
+        <v>52716.7722</v>
+      </c>
+      <c r="G1131" t="n">
+        <v>-4342535.490999998</v>
+      </c>
+      <c r="H1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1131" t="inlineStr"/>
+      <c r="J1131" t="inlineStr"/>
+      <c r="K1131" t="inlineStr"/>
+      <c r="L1131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1131" t="inlineStr"/>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="1" t="n">
+        <v>1130</v>
+      </c>
+      <c r="B1132" t="n">
+        <v>2.098</v>
+      </c>
+      <c r="C1132" t="n">
+        <v>2.095</v>
+      </c>
+      <c r="D1132" t="n">
+        <v>2.098</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>2.095</v>
+      </c>
+      <c r="F1132" t="n">
+        <v>39902.5094</v>
+      </c>
+      <c r="G1132" t="n">
+        <v>-4302632.981599998</v>
+      </c>
+      <c r="H1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1132" t="inlineStr"/>
+      <c r="J1132" t="inlineStr"/>
+      <c r="K1132" t="inlineStr"/>
+      <c r="L1132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1132" t="inlineStr"/>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="1" t="n">
+        <v>1131</v>
+      </c>
+      <c r="B1133" t="n">
+        <v>2.099</v>
+      </c>
+      <c r="C1133" t="n">
+        <v>2.094</v>
+      </c>
+      <c r="D1133" t="n">
+        <v>2.099</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>2.094</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>32504.7199</v>
+      </c>
+      <c r="G1133" t="n">
+        <v>-4335137.701499998</v>
+      </c>
+      <c r="H1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1133" t="inlineStr"/>
+      <c r="J1133" t="inlineStr"/>
+      <c r="K1133" t="inlineStr"/>
+      <c r="L1133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1133" t="inlineStr"/>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="1" t="n">
+        <v>1132</v>
+      </c>
+      <c r="B1134" t="n">
+        <v>2.096</v>
+      </c>
+      <c r="C1134" t="n">
+        <v>2.092</v>
+      </c>
+      <c r="D1134" t="n">
+        <v>2.096</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>2.092</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>31696.018</v>
+      </c>
+      <c r="G1134" t="n">
+        <v>-4366833.719499998</v>
+      </c>
+      <c r="H1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1134" t="inlineStr"/>
+      <c r="J1134" t="inlineStr"/>
+      <c r="K1134" t="inlineStr"/>
+      <c r="L1134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1134" t="inlineStr"/>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="1" t="n">
+        <v>1133</v>
+      </c>
+      <c r="B1135" t="n">
+        <v>2.095</v>
+      </c>
+      <c r="C1135" t="n">
+        <v>2.101</v>
+      </c>
+      <c r="D1135" t="n">
+        <v>2.101</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>2.095</v>
+      </c>
+      <c r="F1135" t="n">
+        <v>38095.2289</v>
+      </c>
+      <c r="G1135" t="n">
+        <v>-4328738.490599997</v>
+      </c>
+      <c r="H1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1135" t="inlineStr"/>
+      <c r="J1135" t="inlineStr"/>
+      <c r="K1135" t="inlineStr"/>
+      <c r="L1135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1135" t="inlineStr"/>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="1" t="n">
+        <v>1134</v>
+      </c>
+      <c r="B1136" t="n">
+        <v>2.092</v>
+      </c>
+      <c r="C1136" t="n">
+        <v>2.095</v>
+      </c>
+      <c r="D1136" t="n">
+        <v>2.095</v>
+      </c>
+      <c r="E1136" t="n">
+        <v>2.092</v>
+      </c>
+      <c r="F1136" t="n">
+        <v>49004.1701</v>
+      </c>
+      <c r="G1136" t="n">
+        <v>-4377742.660699997</v>
+      </c>
+      <c r="H1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1136" t="inlineStr"/>
+      <c r="J1136" t="inlineStr"/>
+      <c r="K1136" t="inlineStr"/>
+      <c r="L1136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1136" t="inlineStr"/>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="1" t="n">
+        <v>1135</v>
+      </c>
+      <c r="B1137" t="n">
+        <v>2.094</v>
+      </c>
+      <c r="C1137" t="n">
+        <v>2.093</v>
+      </c>
+      <c r="D1137" t="n">
+        <v>2.094</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>2.093</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>50595.2638</v>
+      </c>
+      <c r="G1137" t="n">
+        <v>-4428337.924499997</v>
+      </c>
+      <c r="H1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1137" t="inlineStr"/>
+      <c r="J1137" t="inlineStr"/>
+      <c r="K1137" t="inlineStr"/>
+      <c r="L1137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1137" t="inlineStr"/>
+    </row>
+    <row r="1138">
+      <c r="A1138" s="1" t="n">
+        <v>1136</v>
+      </c>
+      <c r="B1138" t="n">
+        <v>2.095</v>
+      </c>
+      <c r="C1138" t="n">
+        <v>2.099</v>
+      </c>
+      <c r="D1138" t="n">
+        <v>2.099</v>
+      </c>
+      <c r="E1138" t="n">
+        <v>2.095</v>
+      </c>
+      <c r="F1138" t="n">
+        <v>50641.6956</v>
+      </c>
+      <c r="G1138" t="n">
+        <v>-4377696.228899997</v>
+      </c>
+      <c r="H1138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>2.093</v>
+      </c>
+      <c r="J1138" t="n">
+        <v>2.093</v>
+      </c>
+      <c r="K1138" t="inlineStr"/>
+      <c r="L1138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1138" t="inlineStr"/>
+    </row>
+    <row r="1139">
+      <c r="A1139" s="1" t="n">
+        <v>1137</v>
+      </c>
+      <c r="B1139" t="n">
+        <v>2.096</v>
+      </c>
+      <c r="C1139" t="n">
+        <v>2.099</v>
+      </c>
+      <c r="D1139" t="n">
+        <v>2.099</v>
+      </c>
+      <c r="E1139" t="n">
+        <v>2.096</v>
+      </c>
+      <c r="F1139" t="n">
+        <v>54237.4508</v>
+      </c>
+      <c r="G1139" t="n">
+        <v>-4377696.228899997</v>
+      </c>
+      <c r="H1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1139" t="inlineStr"/>
+      <c r="J1139" t="n">
+        <v>2.093</v>
+      </c>
+      <c r="K1139" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L1113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1113" t="inlineStr"/>
-    </row>
-    <row r="1114">
-      <c r="A1114" s="1" t="n">
-        <v>1112</v>
-      </c>
-      <c r="B1114" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="C1114" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="D1114" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="E1114" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="F1114" t="n">
-        <v>361908.4717</v>
-      </c>
-      <c r="G1114" t="n">
-        <v>-4265373.7501</v>
-      </c>
-      <c r="H1114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1114" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="J1114" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="K1114" t="inlineStr">
+      <c r="L1139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1139" t="inlineStr"/>
+    </row>
+    <row r="1140">
+      <c r="A1140" s="1" t="n">
+        <v>1138</v>
+      </c>
+      <c r="B1140" t="n">
+        <v>2.099</v>
+      </c>
+      <c r="C1140" t="n">
+        <v>2.092</v>
+      </c>
+      <c r="D1140" t="n">
+        <v>2.102</v>
+      </c>
+      <c r="E1140" t="n">
+        <v>2.092</v>
+      </c>
+      <c r="F1140" t="n">
+        <v>44566.8712</v>
+      </c>
+      <c r="G1140" t="n">
+        <v>-4422263.100099997</v>
+      </c>
+      <c r="H1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1140" t="inlineStr"/>
+      <c r="J1140" t="n">
+        <v>2.093</v>
+      </c>
+      <c r="K1140" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L1114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1114" t="inlineStr"/>
-    </row>
-    <row r="1115">
-      <c r="A1115" s="1" t="n">
-        <v>1113</v>
-      </c>
-      <c r="B1115" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="C1115" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="D1115" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="E1115" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="F1115" t="n">
-        <v>26925.1193</v>
-      </c>
-      <c r="G1115" t="n">
-        <v>-4265373.7501</v>
-      </c>
-      <c r="H1115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1115" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="J1115" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="K1115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1115" t="inlineStr"/>
-    </row>
-    <row r="1116">
-      <c r="A1116" s="1" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B1116" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="C1116" t="n">
-        <v>2.102</v>
-      </c>
-      <c r="D1116" t="n">
-        <v>2.102</v>
-      </c>
-      <c r="E1116" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="F1116" t="n">
-        <v>27057.8991</v>
-      </c>
-      <c r="G1116" t="n">
-        <v>-4238315.851</v>
-      </c>
-      <c r="H1116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1116" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="J1116" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="K1116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1116" t="inlineStr"/>
-    </row>
-    <row r="1117">
-      <c r="A1117" s="1" t="n">
-        <v>1115</v>
-      </c>
-      <c r="B1117" t="n">
-        <v>2.097</v>
-      </c>
-      <c r="C1117" t="n">
-        <v>2.094</v>
-      </c>
-      <c r="D1117" t="n">
-        <v>2.097</v>
-      </c>
-      <c r="E1117" t="n">
-        <v>2.094</v>
-      </c>
-      <c r="F1117" t="n">
-        <v>46544.6757</v>
-      </c>
-      <c r="G1117" t="n">
-        <v>-4284860.526699999</v>
-      </c>
-      <c r="H1117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1117" t="n">
-        <v>2.102</v>
-      </c>
-      <c r="J1117" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="K1117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1117" t="inlineStr"/>
-    </row>
-    <row r="1118">
-      <c r="A1118" s="1" t="n">
-        <v>1116</v>
-      </c>
-      <c r="B1118" t="n">
-        <v>2.094</v>
-      </c>
-      <c r="C1118" t="n">
-        <v>2.097</v>
-      </c>
-      <c r="D1118" t="n">
-        <v>2.097</v>
-      </c>
-      <c r="E1118" t="n">
-        <v>2.093</v>
-      </c>
-      <c r="F1118" t="n">
-        <v>66669.6773</v>
-      </c>
-      <c r="G1118" t="n">
-        <v>-4218190.8494</v>
-      </c>
-      <c r="H1118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1118" t="inlineStr"/>
-      <c r="J1118" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="K1118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1118" t="inlineStr"/>
-    </row>
-    <row r="1119">
-      <c r="A1119" s="1" t="n">
-        <v>1117</v>
-      </c>
-      <c r="B1119" t="n">
-        <v>2.101</v>
-      </c>
-      <c r="C1119" t="n">
-        <v>2.101</v>
-      </c>
-      <c r="D1119" t="n">
-        <v>2.101</v>
-      </c>
-      <c r="E1119" t="n">
-        <v>2.101</v>
-      </c>
-      <c r="F1119" t="n">
-        <v>21625.4209</v>
-      </c>
-      <c r="G1119" t="n">
-        <v>-4196565.428499999</v>
-      </c>
-      <c r="H1119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1119" t="inlineStr"/>
-      <c r="J1119" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="K1119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1119" t="inlineStr"/>
-    </row>
-    <row r="1120">
-      <c r="A1120" s="1" t="n">
-        <v>1118</v>
-      </c>
-      <c r="B1120" t="n">
-        <v>2.097</v>
-      </c>
-      <c r="C1120" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="D1120" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="E1120" t="n">
-        <v>2.097</v>
-      </c>
-      <c r="F1120" t="n">
-        <v>40013.4088</v>
-      </c>
-      <c r="G1120" t="n">
-        <v>-4236578.8373</v>
-      </c>
-      <c r="H1120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1120" t="inlineStr"/>
-      <c r="J1120" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="K1120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1120" t="inlineStr"/>
-    </row>
-    <row r="1121">
-      <c r="A1121" s="1" t="n">
-        <v>1119</v>
-      </c>
-      <c r="B1121" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="C1121" t="n">
-        <v>2.098</v>
-      </c>
-      <c r="D1121" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="E1121" t="n">
-        <v>2.098</v>
-      </c>
-      <c r="F1121" t="n">
-        <v>31519.026</v>
-      </c>
-      <c r="G1121" t="n">
-        <v>-4268097.863299999</v>
-      </c>
-      <c r="H1121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1121" t="inlineStr"/>
-      <c r="J1121" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="K1121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1121" t="inlineStr"/>
-    </row>
-    <row r="1122">
-      <c r="A1122" s="1" t="n">
-        <v>1120</v>
-      </c>
-      <c r="B1122" t="n">
-        <v>2.096</v>
-      </c>
-      <c r="C1122" t="n">
-        <v>2.093</v>
-      </c>
-      <c r="D1122" t="n">
-        <v>2.096</v>
-      </c>
-      <c r="E1122" t="n">
-        <v>2.093</v>
-      </c>
-      <c r="F1122" t="n">
-        <v>41605.4905</v>
-      </c>
-      <c r="G1122" t="n">
-        <v>-4309703.3538</v>
-      </c>
-      <c r="H1122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1122" t="inlineStr"/>
-      <c r="J1122" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="K1122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1122" t="inlineStr"/>
-    </row>
-    <row r="1123">
-      <c r="A1123" s="1" t="n">
-        <v>1121</v>
-      </c>
-      <c r="B1123" t="n">
-        <v>2.097</v>
-      </c>
-      <c r="C1123" t="n">
-        <v>2.092</v>
-      </c>
-      <c r="D1123" t="n">
-        <v>2.097</v>
-      </c>
-      <c r="E1123" t="n">
-        <v>2.092</v>
-      </c>
-      <c r="F1123" t="n">
-        <v>35216.0369</v>
-      </c>
-      <c r="G1123" t="n">
-        <v>-4344919.390699999</v>
-      </c>
-      <c r="H1123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1123" t="inlineStr"/>
-      <c r="J1123" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="K1123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1123" t="inlineStr"/>
-    </row>
-    <row r="1124">
-      <c r="A1124" s="1" t="n">
-        <v>1122</v>
-      </c>
-      <c r="B1124" t="n">
-        <v>2.092</v>
-      </c>
-      <c r="C1124" t="n">
-        <v>2.094</v>
-      </c>
-      <c r="D1124" t="n">
-        <v>2.094</v>
-      </c>
-      <c r="E1124" t="n">
-        <v>2.092</v>
-      </c>
-      <c r="F1124" t="n">
-        <v>43678.5014</v>
-      </c>
-      <c r="G1124" t="n">
-        <v>-4301240.889299999</v>
-      </c>
-      <c r="H1124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1124" t="inlineStr"/>
-      <c r="J1124" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="K1124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1124" t="inlineStr"/>
-    </row>
-    <row r="1125">
-      <c r="A1125" s="1" t="n">
-        <v>1123</v>
-      </c>
-      <c r="B1125" t="n">
-        <v>2.096</v>
-      </c>
-      <c r="C1125" t="n">
-        <v>2.092</v>
-      </c>
-      <c r="D1125" t="n">
-        <v>2.096</v>
-      </c>
-      <c r="E1125" t="n">
-        <v>2.092</v>
-      </c>
-      <c r="F1125" t="n">
-        <v>37945.0973</v>
-      </c>
-      <c r="G1125" t="n">
-        <v>-4339185.986599999</v>
-      </c>
-      <c r="H1125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1125" t="inlineStr"/>
-      <c r="J1125" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="K1125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1125" t="inlineStr"/>
-    </row>
-    <row r="1126">
-      <c r="A1126" s="1" t="n">
-        <v>1124</v>
-      </c>
-      <c r="B1126" t="n">
-        <v>2.098</v>
-      </c>
-      <c r="C1126" t="n">
-        <v>2.093</v>
-      </c>
-      <c r="D1126" t="n">
-        <v>2.098</v>
-      </c>
-      <c r="E1126" t="n">
-        <v>2.093</v>
-      </c>
-      <c r="F1126" t="n">
-        <v>35089.0295</v>
-      </c>
-      <c r="G1126" t="n">
-        <v>-4304096.957099998</v>
-      </c>
-      <c r="H1126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1126" t="inlineStr"/>
-      <c r="J1126" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="K1126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1126" t="inlineStr"/>
-    </row>
-    <row r="1127">
-      <c r="A1127" s="1" t="n">
-        <v>1125</v>
-      </c>
-      <c r="B1127" t="n">
-        <v>2.096</v>
-      </c>
-      <c r="C1127" t="n">
-        <v>2.102</v>
-      </c>
-      <c r="D1127" t="n">
-        <v>2.102</v>
-      </c>
-      <c r="E1127" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="F1127" t="n">
-        <v>44120.9788</v>
-      </c>
-      <c r="G1127" t="n">
-        <v>-4259975.978299999</v>
-      </c>
-      <c r="H1127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1127" t="inlineStr"/>
-      <c r="J1127" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="K1127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1127" t="inlineStr"/>
-    </row>
-    <row r="1128">
-      <c r="A1128" s="1" t="n">
-        <v>1126</v>
-      </c>
-      <c r="B1128" t="n">
-        <v>2.093</v>
-      </c>
-      <c r="C1128" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="D1128" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="E1128" t="n">
-        <v>2.093</v>
-      </c>
-      <c r="F1128" t="n">
-        <v>44646.0638</v>
-      </c>
-      <c r="G1128" t="n">
-        <v>-4304622.042099998</v>
-      </c>
-      <c r="H1128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1128" t="inlineStr"/>
-      <c r="J1128" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="K1128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1128" t="inlineStr"/>
-    </row>
-    <row r="1129">
-      <c r="A1129" s="1" t="n">
-        <v>1127</v>
-      </c>
-      <c r="B1129" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="C1129" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="D1129" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="E1129" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="F1129" t="n">
-        <v>37302.9314</v>
-      </c>
-      <c r="G1129" t="n">
-        <v>-4341924.973499998</v>
-      </c>
-      <c r="H1129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1129" t="inlineStr"/>
-      <c r="J1129" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="K1129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1129" t="inlineStr"/>
-    </row>
-    <row r="1130">
-      <c r="A1130" s="1" t="n">
-        <v>1128</v>
-      </c>
-      <c r="B1130" t="n">
-        <v>2.093</v>
-      </c>
-      <c r="C1130" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="D1130" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="E1130" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="F1130" t="n">
-        <v>52106.2547</v>
-      </c>
-      <c r="G1130" t="n">
-        <v>-4289818.718799998</v>
-      </c>
-      <c r="H1130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1130" t="inlineStr"/>
-      <c r="J1130" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="K1130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1130" t="inlineStr"/>
-    </row>
-    <row r="1131">
-      <c r="A1131" s="1" t="n">
-        <v>1129</v>
-      </c>
-      <c r="B1131" t="n">
-        <v>2.093</v>
-      </c>
-      <c r="C1131" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="D1131" t="n">
-        <v>2.102</v>
-      </c>
-      <c r="E1131" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="F1131" t="n">
-        <v>52716.7722</v>
-      </c>
-      <c r="G1131" t="n">
-        <v>-4342535.490999998</v>
-      </c>
-      <c r="H1131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1131" t="inlineStr"/>
-      <c r="J1131" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="K1131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1131" t="inlineStr"/>
-    </row>
-    <row r="1132">
-      <c r="A1132" s="1" t="n">
-        <v>1130</v>
-      </c>
-      <c r="B1132" t="n">
-        <v>2.098</v>
-      </c>
-      <c r="C1132" t="n">
-        <v>2.095</v>
-      </c>
-      <c r="D1132" t="n">
-        <v>2.098</v>
-      </c>
-      <c r="E1132" t="n">
-        <v>2.095</v>
-      </c>
-      <c r="F1132" t="n">
-        <v>39902.5094</v>
-      </c>
-      <c r="G1132" t="n">
-        <v>-4302632.981599998</v>
-      </c>
-      <c r="H1132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1132" t="inlineStr"/>
-      <c r="J1132" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="K1132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1132" t="inlineStr"/>
-    </row>
-    <row r="1133">
-      <c r="A1133" s="1" t="n">
-        <v>1131</v>
-      </c>
-      <c r="B1133" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="C1133" t="n">
-        <v>2.094</v>
-      </c>
-      <c r="D1133" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="E1133" t="n">
-        <v>2.094</v>
-      </c>
-      <c r="F1133" t="n">
-        <v>32504.7199</v>
-      </c>
-      <c r="G1133" t="n">
-        <v>-4335137.701499998</v>
-      </c>
-      <c r="H1133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1133" t="inlineStr"/>
-      <c r="J1133" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="K1133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1133" t="inlineStr"/>
-    </row>
-    <row r="1134">
-      <c r="A1134" s="1" t="n">
-        <v>1132</v>
-      </c>
-      <c r="B1134" t="n">
-        <v>2.096</v>
-      </c>
-      <c r="C1134" t="n">
-        <v>2.092</v>
-      </c>
-      <c r="D1134" t="n">
-        <v>2.096</v>
-      </c>
-      <c r="E1134" t="n">
-        <v>2.092</v>
-      </c>
-      <c r="F1134" t="n">
-        <v>31696.018</v>
-      </c>
-      <c r="G1134" t="n">
-        <v>-4366833.719499998</v>
-      </c>
-      <c r="H1134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1134" t="inlineStr"/>
-      <c r="J1134" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="K1134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1134" t="inlineStr"/>
-    </row>
-    <row r="1135">
-      <c r="A1135" s="1" t="n">
-        <v>1133</v>
-      </c>
-      <c r="B1135" t="n">
-        <v>2.095</v>
-      </c>
-      <c r="C1135" t="n">
-        <v>2.101</v>
-      </c>
-      <c r="D1135" t="n">
-        <v>2.101</v>
-      </c>
-      <c r="E1135" t="n">
-        <v>2.095</v>
-      </c>
-      <c r="F1135" t="n">
-        <v>38095.2289</v>
-      </c>
-      <c r="G1135" t="n">
-        <v>-4328738.490599997</v>
-      </c>
-      <c r="H1135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1135" t="inlineStr"/>
-      <c r="J1135" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="K1135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1135" t="inlineStr"/>
-    </row>
-    <row r="1136">
-      <c r="A1136" s="1" t="n">
-        <v>1134</v>
-      </c>
-      <c r="B1136" t="n">
-        <v>2.092</v>
-      </c>
-      <c r="C1136" t="n">
-        <v>2.095</v>
-      </c>
-      <c r="D1136" t="n">
-        <v>2.095</v>
-      </c>
-      <c r="E1136" t="n">
-        <v>2.092</v>
-      </c>
-      <c r="F1136" t="n">
-        <v>49004.1701</v>
-      </c>
-      <c r="G1136" t="n">
-        <v>-4377742.660699997</v>
-      </c>
-      <c r="H1136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1136" t="inlineStr"/>
-      <c r="J1136" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="K1136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1136" t="inlineStr"/>
-    </row>
-    <row r="1137">
-      <c r="A1137" s="1" t="n">
-        <v>1135</v>
-      </c>
-      <c r="B1137" t="n">
-        <v>2.094</v>
-      </c>
-      <c r="C1137" t="n">
-        <v>2.093</v>
-      </c>
-      <c r="D1137" t="n">
-        <v>2.094</v>
-      </c>
-      <c r="E1137" t="n">
-        <v>2.093</v>
-      </c>
-      <c r="F1137" t="n">
-        <v>50595.2638</v>
-      </c>
-      <c r="G1137" t="n">
-        <v>-4428337.924499997</v>
-      </c>
-      <c r="H1137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1137" t="inlineStr"/>
-      <c r="J1137" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="K1137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1137" t="inlineStr"/>
-    </row>
-    <row r="1138">
-      <c r="A1138" s="1" t="n">
-        <v>1136</v>
-      </c>
-      <c r="B1138" t="n">
-        <v>2.095</v>
-      </c>
-      <c r="C1138" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="D1138" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="E1138" t="n">
-        <v>2.095</v>
-      </c>
-      <c r="F1138" t="n">
-        <v>50641.6956</v>
-      </c>
-      <c r="G1138" t="n">
-        <v>-4377696.228899997</v>
-      </c>
-      <c r="H1138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1138" t="inlineStr"/>
-      <c r="J1138" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="K1138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1138" t="inlineStr"/>
-    </row>
-    <row r="1139">
-      <c r="A1139" s="1" t="n">
-        <v>1137</v>
-      </c>
-      <c r="B1139" t="n">
-        <v>2.096</v>
-      </c>
-      <c r="C1139" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="D1139" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="E1139" t="n">
-        <v>2.096</v>
-      </c>
-      <c r="F1139" t="n">
-        <v>54237.4508</v>
-      </c>
-      <c r="G1139" t="n">
-        <v>-4377696.228899997</v>
-      </c>
-      <c r="H1139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1139" t="inlineStr"/>
-      <c r="J1139" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="K1139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1139" t="inlineStr"/>
-    </row>
-    <row r="1140">
-      <c r="A1140" s="1" t="n">
-        <v>1138</v>
-      </c>
-      <c r="B1140" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="C1140" t="n">
-        <v>2.092</v>
-      </c>
-      <c r="D1140" t="n">
-        <v>2.102</v>
-      </c>
-      <c r="E1140" t="n">
-        <v>2.092</v>
-      </c>
-      <c r="F1140" t="n">
-        <v>44566.8712</v>
-      </c>
-      <c r="G1140" t="n">
-        <v>-4422263.100099997</v>
-      </c>
-      <c r="H1140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1140" t="inlineStr"/>
-      <c r="J1140" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="K1140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L1140" t="n">
         <v>1</v>
       </c>
@@ -38224,7 +38058,7 @@
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="n">
-        <v>2.091</v>
+        <v>2.093</v>
       </c>
       <c r="K1141" t="inlineStr">
         <is>
@@ -38263,7 +38097,7 @@
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="n">
-        <v>2.091</v>
+        <v>2.093</v>
       </c>
       <c r="K1142" t="inlineStr">
         <is>
@@ -38302,7 +38136,7 @@
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="n">
-        <v>2.091</v>
+        <v>2.093</v>
       </c>
       <c r="K1143" t="inlineStr">
         <is>
@@ -38337,11 +38171,13 @@
         <v>-4359407.657899996</v>
       </c>
       <c r="H1144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>2.091</v>
+      </c>
       <c r="J1144" t="n">
-        <v>2.091</v>
+        <v>2.093</v>
       </c>
       <c r="K1144" t="inlineStr">
         <is>
@@ -38376,11 +38212,13 @@
         <v>-4301045.765299996</v>
       </c>
       <c r="H1145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>2.091</v>
+      </c>
       <c r="J1145" t="n">
-        <v>2.091</v>
+        <v>2.093</v>
       </c>
       <c r="K1145" t="inlineStr">
         <is>
@@ -38415,11 +38253,13 @@
         <v>-4301045.765299996</v>
       </c>
       <c r="H1146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>2.092</v>
+      </c>
       <c r="J1146" t="n">
-        <v>2.091</v>
+        <v>2.093</v>
       </c>
       <c r="K1146" t="inlineStr">
         <is>
@@ -38454,11 +38294,13 @@
         <v>-4338778.806999996</v>
       </c>
       <c r="H1147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>2.092</v>
+      </c>
       <c r="J1147" t="n">
-        <v>2.091</v>
+        <v>2.093</v>
       </c>
       <c r="K1147" t="inlineStr">
         <is>
@@ -38493,11 +38335,13 @@
         <v>-4338778.806999996</v>
       </c>
       <c r="H1148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>2.091</v>
+      </c>
       <c r="J1148" t="n">
-        <v>2.091</v>
+        <v>2.093</v>
       </c>
       <c r="K1148" t="inlineStr">
         <is>
@@ -38532,11 +38376,13 @@
         <v>-4292544.473499997</v>
       </c>
       <c r="H1149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>2.091</v>
+      </c>
       <c r="J1149" t="n">
-        <v>2.091</v>
+        <v>2.093</v>
       </c>
       <c r="K1149" t="inlineStr">
         <is>
@@ -38571,11 +38417,13 @@
         <v>-4339596.574999996</v>
       </c>
       <c r="H1150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>2.093</v>
+      </c>
       <c r="J1150" t="n">
-        <v>2.091</v>
+        <v>2.093</v>
       </c>
       <c r="K1150" t="inlineStr">
         <is>
@@ -38610,11 +38458,13 @@
         <v>-4378927.264999997</v>
       </c>
       <c r="H1151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>2.092</v>
+      </c>
       <c r="J1151" t="n">
-        <v>2.091</v>
+        <v>2.093</v>
       </c>
       <c r="K1151" t="inlineStr">
         <is>
@@ -38649,11 +38499,13 @@
         <v>-4366927.264999997</v>
       </c>
       <c r="H1152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>2.091</v>
+      </c>
       <c r="J1152" t="n">
-        <v>2.091</v>
+        <v>2.093</v>
       </c>
       <c r="K1152" t="inlineStr">
         <is>
@@ -38688,11 +38540,13 @@
         <v>-4394819.694399997</v>
       </c>
       <c r="H1153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>2.101</v>
+      </c>
       <c r="J1153" t="n">
-        <v>2.091</v>
+        <v>2.093</v>
       </c>
       <c r="K1153" t="inlineStr">
         <is>
@@ -38705,6 +38559,6 @@
       <c r="M1153" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest DAC.xlsx
+++ b/BackTest/2020-01-15 BackTest DAC.xlsx
@@ -5698,7 +5698,7 @@
         <v>-1791114.5035</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-1791114.5035</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-1825392.1626</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-1866262.852</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-1866262.852</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-1821546.3562</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-1789164.4615</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-1789164.4615</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-1753600.4187</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-1795677.8138</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-1695509.6585</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-1767451.6307</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-1806857.5169</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-1777959.083</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-1742825.2776</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-1704247.1039</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-1721661.5756</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-1685218.5515</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-1705799.2039</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-1595432.0742</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-1595432.0742</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-1642328.5861</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-1642328.5861</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-1602502.1562</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-1602502.1562</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-1602502.1562</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-1602502.1562</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-1602502.1562</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-1602502.1562</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-1602502.1562</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-1602502.1562</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-1602502.1562</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-1596502.1562</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-1596502.1562</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-1596502.1562</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-1596502.1562</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-1646812.1995</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-1585926.7238</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-1585926.7238</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-1578637.7238</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-1578637.7238</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-1603029.2962</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-1564062.5546</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-1602152.7637</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-1582304.223</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-1582304.223</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-1622467.7492</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-1573608.2416</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-1573608.2416</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-1573608.2416</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-1573608.2416</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-1549153.2988</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-1549153.2988</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-1554741.5888</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-1548741.5888</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-1548741.5888</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-1548741.5888</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-1548741.5888</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-1548741.5888</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-1786161.031</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-1786161.031</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -22660,7 +22660,7 @@
         <v>-1066957.0507</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22825,7 +22825,7 @@
         <v>-1116009.8421</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>-1228117.2938</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>-1250971.251</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         <v>-1352612.1254</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>-1375932.5164</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23518,7 +23518,7 @@
         <v>-1326189.2286</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>-1355205.7192</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>-1308501.0133</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>-1359650.2928</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>-1321927.8161</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -24211,7 +24211,7 @@
         <v>-1429202.240500001</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>-1429202.240500001</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>-1395296.7762</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
         <v>-1443639.566300001</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24343,7 +24343,7 @@
         <v>-1503660.8229</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24376,7 +24376,7 @@
         <v>-1544269.7525</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24409,7 +24409,7 @@
         <v>-1503821.1922</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24442,7 +24442,7 @@
         <v>-1463986.3701</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24475,7 +24475,7 @@
         <v>-1463986.3701</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -24508,7 +24508,7 @@
         <v>-1511174.7888</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24541,7 +24541,7 @@
         <v>-1457536.8561</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24574,7 +24574,7 @@
         <v>-1499429.7337</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24607,7 +24607,7 @@
         <v>-1533831.9297</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24640,7 +24640,7 @@
         <v>-1487751.733500001</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -24673,7 +24673,7 @@
         <v>-1514002.8717</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24706,7 +24706,7 @@
         <v>-1579250.855100001</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -24739,7 +24739,7 @@
         <v>-1536754.0329</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -24772,7 +24772,7 @@
         <v>-1583126.9248</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -36487,7 +36487,7 @@
         <v>-2762911.3428</v>
       </c>
       <c r="H1094" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
@@ -36553,7 +36553,7 @@
         <v>-2867281.6106</v>
       </c>
       <c r="H1096" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
@@ -36586,7 +36586,7 @@
         <v>-2908966.9736</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
@@ -36685,7 +36685,7 @@
         <v>-2919089.6921</v>
       </c>
       <c r="H1100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
@@ -36718,7 +36718,7 @@
         <v>-2919089.6921</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
@@ -36751,7 +36751,7 @@
         <v>-2886925.8859</v>
       </c>
       <c r="H1102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
@@ -36817,7 +36817,7 @@
         <v>-4109280.857</v>
       </c>
       <c r="H1104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
@@ -36850,7 +36850,7 @@
         <v>-4109280.857</v>
       </c>
       <c r="H1105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
@@ -37939,14 +37939,10 @@
         <v>-4377696.228899997</v>
       </c>
       <c r="H1138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1138" t="n">
-        <v>2.093</v>
-      </c>
-      <c r="J1138" t="n">
-        <v>2.093</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1138" t="inlineStr"/>
+      <c r="J1138" t="inlineStr"/>
       <c r="K1138" t="inlineStr"/>
       <c r="L1138" t="n">
         <v>1</v>
@@ -37979,14 +37975,8 @@
         <v>0</v>
       </c>
       <c r="I1139" t="inlineStr"/>
-      <c r="J1139" t="n">
-        <v>2.093</v>
-      </c>
-      <c r="K1139" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J1139" t="inlineStr"/>
+      <c r="K1139" t="inlineStr"/>
       <c r="L1139" t="n">
         <v>1</v>
       </c>
@@ -38018,336 +38008,278 @@
         <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
-      <c r="J1140" t="n">
+      <c r="J1140" t="inlineStr"/>
+      <c r="K1140" t="inlineStr"/>
+      <c r="L1140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1140" t="inlineStr"/>
+    </row>
+    <row r="1141">
+      <c r="A1141" s="1" t="n">
+        <v>1139</v>
+      </c>
+      <c r="B1141" t="n">
+        <v>2.102</v>
+      </c>
+      <c r="C1141" t="n">
         <v>2.093</v>
       </c>
-      <c r="K1140" t="inlineStr">
+      <c r="D1141" t="n">
+        <v>2.102</v>
+      </c>
+      <c r="E1141" t="n">
+        <v>2.093</v>
+      </c>
+      <c r="F1141" t="n">
+        <v>123101.6769</v>
+      </c>
+      <c r="G1141" t="n">
+        <v>-4299161.423199996</v>
+      </c>
+      <c r="H1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1141" t="inlineStr"/>
+      <c r="J1141" t="inlineStr"/>
+      <c r="K1141" t="inlineStr"/>
+      <c r="L1141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1141" t="inlineStr"/>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="1" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B1142" t="n">
+        <v>2.092</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>2.092</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>60246.2347</v>
+      </c>
+      <c r="G1142" t="n">
+        <v>-4359407.657899996</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1142" t="inlineStr"/>
+      <c r="J1142" t="inlineStr"/>
+      <c r="K1142" t="inlineStr"/>
+      <c r="L1142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1142" t="inlineStr"/>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="1" t="n">
+        <v>1141</v>
+      </c>
+      <c r="B1143" t="n">
+        <v>2.092</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>2.092</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>33399.6109</v>
+      </c>
+      <c r="G1143" t="n">
+        <v>-4359407.657899996</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1143" t="inlineStr"/>
+      <c r="J1143" t="inlineStr"/>
+      <c r="K1143" t="inlineStr"/>
+      <c r="L1143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1143" t="inlineStr"/>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="1" t="n">
+        <v>1142</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>14881.388</v>
+      </c>
+      <c r="G1144" t="n">
+        <v>-4359407.657899996</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1144" t="inlineStr"/>
+      <c r="J1144" t="inlineStr"/>
+      <c r="K1144" t="inlineStr"/>
+      <c r="L1144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1144" t="inlineStr"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="1" t="n">
+        <v>1143</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>2.092</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>2.092</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>58361.8926</v>
+      </c>
+      <c r="G1145" t="n">
+        <v>-4301045.765299996</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1145" t="inlineStr"/>
+      <c r="J1145" t="inlineStr"/>
+      <c r="K1145" t="inlineStr"/>
+      <c r="L1145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1145" t="inlineStr"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="1" t="n">
+        <v>1144</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>2.092</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>2.092</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>2.092</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>2.092</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>45028.5922</v>
+      </c>
+      <c r="G1146" t="n">
+        <v>-4301045.765299996</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1146" t="inlineStr"/>
+      <c r="J1146" t="inlineStr"/>
+      <c r="K1146" t="inlineStr"/>
+      <c r="L1146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1146" t="inlineStr"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="1" t="n">
+        <v>1145</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>37733.0417</v>
+      </c>
+      <c r="G1147" t="n">
+        <v>-4338778.806999996</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1147" t="inlineStr"/>
+      <c r="J1147" t="inlineStr"/>
+      <c r="K1147" t="inlineStr"/>
+      <c r="L1147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1147" t="inlineStr"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="1" t="n">
+        <v>1146</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>2.093</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>52497.6865</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>-4338778.806999996</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="J1148" t="inlineStr"/>
+      <c r="K1148" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L1140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1140" t="inlineStr"/>
-    </row>
-    <row r="1141">
-      <c r="A1141" s="1" t="n">
-        <v>1139</v>
-      </c>
-      <c r="B1141" t="n">
-        <v>2.102</v>
-      </c>
-      <c r="C1141" t="n">
-        <v>2.093</v>
-      </c>
-      <c r="D1141" t="n">
-        <v>2.102</v>
-      </c>
-      <c r="E1141" t="n">
-        <v>2.093</v>
-      </c>
-      <c r="F1141" t="n">
-        <v>123101.6769</v>
-      </c>
-      <c r="G1141" t="n">
-        <v>-4299161.423199996</v>
-      </c>
-      <c r="H1141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1141" t="inlineStr"/>
-      <c r="J1141" t="n">
-        <v>2.093</v>
-      </c>
-      <c r="K1141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1141" t="inlineStr"/>
-    </row>
-    <row r="1142">
-      <c r="A1142" s="1" t="n">
-        <v>1140</v>
-      </c>
-      <c r="B1142" t="n">
-        <v>2.092</v>
-      </c>
-      <c r="C1142" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="D1142" t="n">
-        <v>2.092</v>
-      </c>
-      <c r="E1142" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="F1142" t="n">
-        <v>60246.2347</v>
-      </c>
-      <c r="G1142" t="n">
-        <v>-4359407.657899996</v>
-      </c>
-      <c r="H1142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1142" t="inlineStr"/>
-      <c r="J1142" t="n">
-        <v>2.093</v>
-      </c>
-      <c r="K1142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1142" t="inlineStr"/>
-    </row>
-    <row r="1143">
-      <c r="A1143" s="1" t="n">
-        <v>1141</v>
-      </c>
-      <c r="B1143" t="n">
-        <v>2.092</v>
-      </c>
-      <c r="C1143" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="D1143" t="n">
-        <v>2.092</v>
-      </c>
-      <c r="E1143" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="F1143" t="n">
-        <v>33399.6109</v>
-      </c>
-      <c r="G1143" t="n">
-        <v>-4359407.657899996</v>
-      </c>
-      <c r="H1143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1143" t="inlineStr"/>
-      <c r="J1143" t="n">
-        <v>2.093</v>
-      </c>
-      <c r="K1143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1143" t="inlineStr"/>
-    </row>
-    <row r="1144">
-      <c r="A1144" s="1" t="n">
-        <v>1142</v>
-      </c>
-      <c r="B1144" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="C1144" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="D1144" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="E1144" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="F1144" t="n">
-        <v>14881.388</v>
-      </c>
-      <c r="G1144" t="n">
-        <v>-4359407.657899996</v>
-      </c>
-      <c r="H1144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1144" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="J1144" t="n">
-        <v>2.093</v>
-      </c>
-      <c r="K1144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1144" t="inlineStr"/>
-    </row>
-    <row r="1145">
-      <c r="A1145" s="1" t="n">
-        <v>1143</v>
-      </c>
-      <c r="B1145" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="C1145" t="n">
-        <v>2.092</v>
-      </c>
-      <c r="D1145" t="n">
-        <v>2.092</v>
-      </c>
-      <c r="E1145" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="F1145" t="n">
-        <v>58361.8926</v>
-      </c>
-      <c r="G1145" t="n">
-        <v>-4301045.765299996</v>
-      </c>
-      <c r="H1145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1145" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="J1145" t="n">
-        <v>2.093</v>
-      </c>
-      <c r="K1145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1145" t="inlineStr"/>
-    </row>
-    <row r="1146">
-      <c r="A1146" s="1" t="n">
-        <v>1144</v>
-      </c>
-      <c r="B1146" t="n">
-        <v>2.092</v>
-      </c>
-      <c r="C1146" t="n">
-        <v>2.092</v>
-      </c>
-      <c r="D1146" t="n">
-        <v>2.092</v>
-      </c>
-      <c r="E1146" t="n">
-        <v>2.092</v>
-      </c>
-      <c r="F1146" t="n">
-        <v>45028.5922</v>
-      </c>
-      <c r="G1146" t="n">
-        <v>-4301045.765299996</v>
-      </c>
-      <c r="H1146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1146" t="n">
-        <v>2.092</v>
-      </c>
-      <c r="J1146" t="n">
-        <v>2.093</v>
-      </c>
-      <c r="K1146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1146" t="inlineStr"/>
-    </row>
-    <row r="1147">
-      <c r="A1147" s="1" t="n">
-        <v>1145</v>
-      </c>
-      <c r="B1147" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="C1147" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="D1147" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="E1147" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="F1147" t="n">
-        <v>37733.0417</v>
-      </c>
-      <c r="G1147" t="n">
-        <v>-4338778.806999996</v>
-      </c>
-      <c r="H1147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1147" t="n">
-        <v>2.092</v>
-      </c>
-      <c r="J1147" t="n">
-        <v>2.093</v>
-      </c>
-      <c r="K1147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1147" t="inlineStr"/>
-    </row>
-    <row r="1148">
-      <c r="A1148" s="1" t="n">
-        <v>1146</v>
-      </c>
-      <c r="B1148" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="C1148" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="D1148" t="n">
-        <v>2.093</v>
-      </c>
-      <c r="E1148" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="F1148" t="n">
-        <v>52497.6865</v>
-      </c>
-      <c r="G1148" t="n">
-        <v>-4338778.806999996</v>
-      </c>
-      <c r="H1148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1148" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="J1148" t="n">
-        <v>2.093</v>
-      </c>
-      <c r="K1148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L1148" t="n">
         <v>1</v>
       </c>
@@ -38381,9 +38313,7 @@
       <c r="I1149" t="n">
         <v>2.091</v>
       </c>
-      <c r="J1149" t="n">
-        <v>2.093</v>
-      </c>
+      <c r="J1149" t="inlineStr"/>
       <c r="K1149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38422,9 +38352,7 @@
       <c r="I1150" t="n">
         <v>2.093</v>
       </c>
-      <c r="J1150" t="n">
-        <v>2.093</v>
-      </c>
+      <c r="J1150" t="inlineStr"/>
       <c r="K1150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38463,9 +38391,7 @@
       <c r="I1151" t="n">
         <v>2.092</v>
       </c>
-      <c r="J1151" t="n">
-        <v>2.093</v>
-      </c>
+      <c r="J1151" t="inlineStr"/>
       <c r="K1151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38504,9 +38430,7 @@
       <c r="I1152" t="n">
         <v>2.091</v>
       </c>
-      <c r="J1152" t="n">
-        <v>2.093</v>
-      </c>
+      <c r="J1152" t="inlineStr"/>
       <c r="K1152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38545,9 +38469,7 @@
       <c r="I1153" t="n">
         <v>2.101</v>
       </c>
-      <c r="J1153" t="n">
-        <v>2.093</v>
-      </c>
+      <c r="J1153" t="inlineStr"/>
       <c r="K1153" t="inlineStr">
         <is>
           <t>매도 대기</t>
